--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/103 泉舜公寓.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/103 泉舜公寓.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340" tabRatio="928"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="928" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="maze103_part1" sheetId="4" r:id="rId1"/>
@@ -428,7 +428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="65">
   <si>
     <t>说明</t>
   </si>
@@ -514,7 +514,7 @@
     <t>角色台词</t>
   </si>
   <si>
-    <t>巢主，就在这一楼，对吧。</t>
+    <t>{#聂飞严肃动作}巢主，就在这一楼，对吧。</t>
   </si>
   <si>
     <t>tuling</t>
@@ -523,10 +523,10 @@
     <t>pos=左</t>
   </si>
   <si>
-    <t>这里的复杂程度和前两楼不是一个量级的，空间的压缩变得更严重了。</t>
+    <t>{#涂凌紧张动作}这里的复杂程度和前两楼不是一个量级的，空间的压缩变得更严重了。</t>
   </si>
   <si>
-    <t>多个地点都出现了强烈的异质波动，巢主身边的异质物，同样危险！</t>
+    <t>{#涂凌思考动作}多个地点都出现了强烈的异质波动，巢主身边的异质物，同样危险！</t>
   </si>
   <si>
     <t>kaiselin02</t>
@@ -535,13 +535,16 @@
     <t>pos=右</t>
   </si>
   <si>
-    <t>那么紧张干嘛~打不过的话，绕开就好啦~</t>
+    <t>{#凯瑟琳2得意动作}{#凯瑟琳2得意表情}那么紧张干嘛~打不过的话，绕开就好啦~</t>
   </si>
   <si>
     <t>跳转-标签</t>
   </si>
   <si>
     <t>结束</t>
+  </si>
+  <si>
+    <t>涂凌_待机_动作_循环_02</t>
   </si>
   <si>
     <t>前面的异质物很强，以安全评定来说，还是先绕开换条路走比较好。</t>
@@ -553,64 +556,73 @@
     <t>呜啊……我要吃饭！肚子又在唱歌啦！</t>
   </si>
   <si>
-    <t>什么情况？！这就是巢主吗？他是我们之前遇见过的那个吧！</t>
+    <t>{#聂飞思考动作}{#聂飞思考表情}什么情况？！这就是巢主吗？他是我们之前遇见过的那个吧！</t>
   </si>
   <si>
     <t>呜啊感觉你们很好吃，肚子唱得更响了，烦人儿！</t>
   </si>
   <si>
-    <t>你的朋友呢？</t>
+    <t>{#凯瑟琳2严肃动作}{#凯瑟琳2严肃表情}你的朋友呢？</t>
   </si>
   <si>
     <t>巢主的肚子咕噜咕噜地响。</t>
   </si>
   <si>
-    <t>可恶，别跟他废话了，周易，上吧！</t>
+    <t>type=1</t>
+  </si>
+  <si>
+    <t>{#聂飞愤怒动作}{#聂飞愤怒表情}可恶，别跟他废话了，上吧！</t>
   </si>
   <si>
     <t>胜利</t>
   </si>
   <si>
-    <t>终于结束了，这个巢算是清理干净了吧！</t>
+    <t>{#聂飞馋动作}终于结束了，这个巢算是清理干净了吧！</t>
   </si>
   <si>
-    <t>好像不是这样，巢变反应没有并没有消失。</t>
+    <t>{#涂凌思考动作}好像不是这样，巢变反应没有并没有消失。</t>
   </si>
   <si>
     <t>我先把情报发给杜博士吧，看看她怎么说。</t>
   </si>
   <si>
-    <t>怎么能退缩呢！不试试怎么知道！</t>
+    <t>{#聂飞得意动作}怎么能退缩呢！不试试怎么知道！</t>
   </si>
   <si>
-    <t>小菜一碟~</t>
+    <t>{#聂飞思考动作}{#聂飞得意表情}小菜一碟~</t>
   </si>
   <si>
     <t>失败</t>
   </si>
   <si>
-    <t>糟糕！还是先撤退吧！</t>
+    <t>{#聂飞惊讶}糟糕！还是先撤退吧！</t>
   </si>
   <si>
-    <t>周易，这个敌人也很强，还是换一条路吧……</t>
+    <t>{#涂凌思考动作}这个敌人也很强，还是换一条路吧……</t>
   </si>
   <si>
     <t>wo</t>
   </si>
   <si>
-    <t>没关系的，可以先挑战下看看</t>
+    <t>没关系的，可以先挑战下看看。</t>
   </si>
   <si>
-    <t>看样子我们的实力还是很不错的！</t>
+    <t>{#涂凌点赞动作}看样子我们的实力还是很不错的！</t>
   </si>
   <si>
     <t>不好……先撤退吧！</t>
   </si>
   <si>
-    <t>探测器显示，这个异质物强度一般。</t>
+    <t>探测器显示，这个异质物强度一般。{#涂凌忧伤动作}</t>
   </si>
   <si>
-    <t>那还犹豫什么！上呀！</t>
+    <t>那还犹豫什么！上呀！{#聂飞得意动作}</t>
+  </si>
+  <si>
+    <t>探测器显示，这个异质物强度一般。{#涂凌待机2动作}</t>
+  </si>
+  <si>
+    <t>那还犹豫什么！上呀！{#聂飞军体拳}</t>
   </si>
 </sst>
 </file>
@@ -1786,10 +1798,10 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2228,7 +2240,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -16751,7 +16763,9 @@
       <c r="F8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="31" t="s">
+        <v>38</v>
+      </c>
       <c r="H8" s="33"/>
       <c r="I8" s="36"/>
     </row>
@@ -16769,7 +16783,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="10"/>
       <c r="I9" s="28"/>
@@ -45561,7 +45575,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -45608,9 +45622,9 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="15">
+      <c r="D2" s="15" t="str">
         <f ca="1">INDEX($D$5:$D$787,CELL("row")-4)</f>
-        <v>0</v>
+        <v>角色台词</v>
       </c>
       <c r="E2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -45756,10 +45770,10 @@
         <v>27</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="10"/>
       <c r="J8" s="37"/>
@@ -45798,7 +45812,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="10"/>
       <c r="J10" s="37"/>
@@ -45814,10 +45828,10 @@
         <v>27</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="10"/>
       <c r="J11" s="37"/>
@@ -45856,7 +45870,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" s="10"/>
       <c r="J13" s="37"/>
@@ -45873,9 +45887,12 @@
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="10"/>
+      <c r="H14" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J14" s="37"/>
     </row>
     <row r="15" s="4" customFormat="1" customHeight="1" spans="1:10">
@@ -45892,14 +45909,14 @@
         <v>25</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G15" s="10"/>
       <c r="J15" s="37"/>
     </row>
     <row r="16" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A16" s="28">
-        <f t="shared" ref="A16:A24" si="1">ROW()-6</f>
+        <f t="shared" ref="A16:A25" si="1">ROW()-6</f>
         <v>10</v>
       </c>
       <c r="B16" s="11"/>
@@ -45922,7 +45939,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
@@ -45984,7 +46001,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G20" s="10"/>
       <c r="J20" s="37"/>
@@ -46023,7 +46040,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G22" s="10"/>
       <c r="J22" s="37"/>
@@ -46042,7 +46059,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G23" s="10"/>
       <c r="J23" s="37"/>
@@ -46068,7 +46085,7 @@
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A25" s="28">
-        <f>ROW()-6</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -46100,7 +46117,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -46147,9 +46164,9 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="15">
+      <c r="D2" s="15" t="str">
         <f ca="1">INDEX($D$5:$D$783,CELL("row")-4)</f>
-        <v>0</v>
+        <v>跳转-标签</v>
       </c>
       <c r="E2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -46318,7 +46335,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" s="10"/>
       <c r="J9" s="37"/>
@@ -46348,7 +46365,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
@@ -46410,7 +46427,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="10"/>
       <c r="J14" s="37"/>
@@ -46436,11 +46453,11 @@
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A16" s="28">
-        <f t="shared" ref="A16:A20" si="1">ROW()-6</f>
+        <f t="shared" ref="A16:A21" si="1">ROW()-6</f>
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
@@ -46502,7 +46519,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G19" s="10"/>
       <c r="J19" s="37"/>
@@ -46528,7 +46545,7 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A21" s="28">
-        <f>ROW()-6</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -46560,7 +46577,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -46607,9 +46624,9 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="15">
+      <c r="D2" s="15" t="str">
         <f ca="1">INDEX($D$5:$D$783,CELL("row")-4)</f>
-        <v>0</v>
+        <v>跳转-标签</v>
       </c>
       <c r="E2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -46778,7 +46795,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" s="10"/>
       <c r="J9" s="37"/>
@@ -46794,10 +46811,10 @@
         <v>27</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G10" s="10"/>
       <c r="J10" s="37"/>
@@ -46827,7 +46844,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -46889,7 +46906,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G15" s="10"/>
       <c r="J15" s="37"/>
@@ -46915,11 +46932,11 @@
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A17" s="28">
-        <f t="shared" ref="A17:A20" si="2">ROW()-6</f>
+        <f t="shared" ref="A17:A21" si="2">ROW()-6</f>
         <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
@@ -46958,10 +46975,10 @@
         <v>27</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G19" s="10"/>
       <c r="J19" s="37"/>
@@ -46987,7 +47004,7 @@
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A21" s="28">
-        <f>ROW()-6</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -47019,7 +47036,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -47237,7 +47254,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" s="10"/>
       <c r="J9" s="37"/>
@@ -47276,7 +47293,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G11" s="10"/>
       <c r="J11" s="37"/>
@@ -47331,10 +47348,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -47552,7 +47569,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G9" s="10"/>
       <c r="J9" s="37"/>
@@ -47591,7 +47608,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G11" s="10"/>
       <c r="J11" s="37"/>
